--- a/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="441">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1351,6 +1351,12 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2257,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2300,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2364,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2424,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2490,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2553,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2651,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2710,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,7 +2775,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2818,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2893,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3079,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3145,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3203,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3269,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3325,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3400,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,7 +3443,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3509,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3559,7 +3565,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3657,7 +3663,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3726,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4166,10 +4172,10 @@
   </sheetPr>
   <dimension ref="A2:K596"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A552" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B572" sqref="B572"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="3510" topLeftCell="A552"/>
+      <selection activeCell="R10" sqref="R10:R11"/>
+      <selection pane="bottomLeft" activeCell="M561" sqref="M561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4336,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-15.077000000000112</v>
+        <v>-13.827000000000112</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4340,7 +4346,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.458999999999889</v>
+        <v>53.708999999999889</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14958,7 +14964,7 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.458999999999889</v>
+        <v>53.708999999999889</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
@@ -16837,7 +16843,9 @@
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
-      <c r="F562" s="20"/>
+      <c r="F562" s="20" t="s">
+        <v>439</v>
+      </c>
       <c r="G562" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -16910,7 +16918,9 @@
       </c>
       <c r="C565" s="13"/>
       <c r="D565" s="39"/>
-      <c r="E565" s="9"/>
+      <c r="E565" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="F565" s="20"/>
       <c r="G565" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -16930,13 +16940,15 @@
       <c r="B566" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C566" s="13"/>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H566" s="39">
         <v>2</v>
@@ -16966,7 +16978,9 @@
       <c r="A568" s="40">
         <v>45292</v>
       </c>
-      <c r="B568" s="20"/>
+      <c r="B568" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
@@ -16975,10 +16989,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H568" s="39"/>
+      <c r="H568" s="39">
+        <v>1</v>
+      </c>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="51">
+        <v>45293</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">

--- a/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="440">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1285,9 +1285,6 @@
   </si>
   <si>
     <t>7/17,31/2023</t>
-  </si>
-  <si>
-    <t>A(5-0-0)</t>
   </si>
   <si>
     <t>12/14,19,21,27,29/2022</t>
@@ -2257,7 +2254,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2297,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2361,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +2421,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2487,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2550,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2648,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2707,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2772,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2818,7 +2815,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2890,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,7 +3076,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3142,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3200,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,7 +3266,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3322,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3397,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3440,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3506,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,7 +3562,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3663,7 +3660,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,7 +3723,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3792,7 +3789,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K596" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4170,12 +4167,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K596"/>
+  <dimension ref="A2:K595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A552"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="3510" topLeftCell="A519"/>
       <selection activeCell="R10" sqref="R10:R11"/>
-      <selection pane="bottomLeft" activeCell="M561" sqref="M561"/>
+      <selection pane="bottomLeft" activeCell="B537" sqref="B537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4336,7 +4333,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-13.827000000000112</v>
+        <v>-8.8270000000001119</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15933,7 +15930,7 @@
         <v>44621</v>
       </c>
       <c r="B523" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C523" s="13">
         <v>1.25</v>
@@ -15957,7 +15954,7 @@
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C524" s="13"/>
       <c r="D524" s="39">
@@ -16023,7 +16020,7 @@
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39">
@@ -16046,7 +16043,7 @@
         <v>44682</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C528" s="13">
         <v>1.25</v>
@@ -16064,7 +16061,7 @@
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
@@ -16093,7 +16090,7 @@
         <v>44713</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C530" s="13">
         <v>1.25</v>
@@ -16111,13 +16108,13 @@
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
       <c r="K530" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C531" s="13"/>
       <c r="D531" s="39">
@@ -16164,7 +16161,7 @@
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C533" s="13"/>
       <c r="D533" s="39">
@@ -16186,7 +16183,7 @@
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C534" s="13"/>
       <c r="D534" s="39">
@@ -16208,7 +16205,7 @@
         <v>44774</v>
       </c>
       <c r="B535" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C535" s="13">
         <v>1.25</v>
@@ -16226,13 +16223,13 @@
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
       <c r="K535" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C536" s="13"/>
       <c r="D536" s="39">
@@ -16254,7 +16251,7 @@
         <v>44805</v>
       </c>
       <c r="B537" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C537" s="13">
         <v>1.25</v>
@@ -16272,13 +16269,13 @@
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
       <c r="K537" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C538" s="13"/>
       <c r="D538" s="39">
@@ -16348,7 +16345,7 @@
         <v>44866</v>
       </c>
       <c r="B541" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C541" s="13">
         <v>1.25</v>
@@ -16366,13 +16363,13 @@
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
       <c r="K541" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C542" s="13"/>
       <c r="D542" s="39">
@@ -16394,7 +16391,7 @@
         <v>44896</v>
       </c>
       <c r="B543" s="20" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C543" s="13">
         <v>1.25</v>
@@ -16411,16 +16408,18 @@
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
+      <c r="K543" s="20" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C544" s="13"/>
       <c r="D544" s="39">
-        <v>5</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
@@ -16431,19 +16430,15 @@
       <c r="H544" s="39"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20" t="s">
-        <v>418</v>
-      </c>
+      <c r="K544" s="20"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40"/>
-      <c r="B545" s="20" t="s">
-        <v>419</v>
-      </c>
+      <c r="A545" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B545" s="20"/>
       <c r="C545" s="13"/>
-      <c r="D545" s="39">
-        <v>0.84199999999999997</v>
-      </c>
+      <c r="D545" s="39"/>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
       <c r="G545" s="13" t="str">
@@ -16456,133 +16451,137 @@
       <c r="K545" s="20"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="B546" s="20"/>
-      <c r="C546" s="13"/>
+      <c r="A546" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B546" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H546" s="39"/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H546" s="39">
+        <v>3</v>
+      </c>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20"/>
+      <c r="K546" s="20" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C547" s="13">
-        <v>1.25</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C547" s="13"/>
       <c r="D547" s="39"/>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G547" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H547" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
       <c r="K547" s="20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40"/>
+      <c r="A548" s="40">
+        <v>44958</v>
+      </c>
       <c r="B548" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C548" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C548" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D548" s="39"/>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
-      <c r="G548" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G548" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H548" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
       <c r="K548" s="20" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C549" s="13">
-        <v>1.25</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C549" s="13"/>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H549" s="39">
-        <v>3</v>
-      </c>
+      <c r="G549" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H549" s="39"/>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20" t="s">
-        <v>411</v>
+      <c r="K549" s="51">
+        <v>44977</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40"/>
+      <c r="A550" s="40">
+        <v>44986</v>
+      </c>
       <c r="B550" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C550" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C550" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D550" s="39"/>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
-      <c r="G550" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H550" s="39"/>
+      <c r="G550" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H550" s="39">
+        <v>2</v>
+      </c>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="51">
-        <v>44977</v>
+      <c r="K550" s="20" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C551" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C551" s="13"/>
       <c r="D551" s="39"/>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G551" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H551" s="39">
         <v>2</v>
@@ -16590,37 +16589,41 @@
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
       <c r="K551" s="20" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40"/>
+      <c r="A552" s="40">
+        <v>45017</v>
+      </c>
       <c r="B552" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C552" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D552" s="39"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H552" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20" t="s">
-        <v>410</v>
+      <c r="K552" s="51">
+        <v>45040</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B553" s="20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C553" s="13">
         <v>1.25</v>
@@ -16633,20 +16636,20 @@
         <v>1.25</v>
       </c>
       <c r="H553" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="51">
-        <v>45040</v>
+      <c r="K553" s="20" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B554" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C554" s="13">
         <v>1.25</v>
@@ -16659,30 +16662,26 @@
         <v>1.25</v>
       </c>
       <c r="H554" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20" t="s">
-        <v>414</v>
+      <c r="K554" s="51">
+        <v>45084</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C555" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C555" s="13"/>
       <c r="D555" s="39"/>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H555" s="39">
         <v>1</v>
@@ -16690,13 +16689,13 @@
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
       <c r="K555" s="51">
-        <v>45084</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -16706,19 +16705,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H556" s="39">
-        <v>1</v>
-      </c>
+      <c r="H556" s="39"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
       <c r="K556" s="51">
-        <v>45082</v>
+        <v>45097</v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
@@ -16728,38 +16725,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H557" s="39"/>
+      <c r="H557" s="39">
+        <v>1</v>
+      </c>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
       <c r="K557" s="51">
-        <v>45097</v>
+        <v>45100</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40"/>
+      <c r="A558" s="40">
+        <v>45108</v>
+      </c>
       <c r="B558" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C558" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D558" s="39"/>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H558" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="51">
-        <v>45100</v>
+      <c r="K558" s="56" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B559" s="20" t="s">
         <v>68</v>
@@ -16779,16 +16782,16 @@
       </c>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="56" t="s">
-        <v>415</v>
+      <c r="K559" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B560" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C560" s="13">
         <v>1.25</v>
@@ -16801,70 +16804,70 @@
         <v>1.25</v>
       </c>
       <c r="H560" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20" t="s">
-        <v>416</v>
+      <c r="K560" s="51">
+        <v>45170</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C561" s="13"/>
       <c r="D561" s="39"/>
       <c r="E561" s="9"/>
-      <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="F561" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H561" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="51">
-        <v>45170</v>
+      <c r="K561" s="51" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40"/>
+      <c r="A562" s="40">
+        <v>45200</v>
+      </c>
       <c r="B562" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C562" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
-      <c r="F562" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="G562" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="F562" s="20"/>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H562" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="51" t="s">
-        <v>435</v>
+      <c r="K562" s="51">
+        <v>45208</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B563" s="20" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C563" s="13">
         <v>1.25</v>
@@ -16877,110 +16880,106 @@
         <v>1.25</v>
       </c>
       <c r="H563" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="51">
-        <v>45208</v>
+      <c r="K563" s="20" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C564" s="13">
-        <v>1.25</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C564" s="13"/>
       <c r="D564" s="39"/>
-      <c r="E564" s="9"/>
+      <c r="E564" s="9" t="s">
+        <v>439</v>
+      </c>
       <c r="F564" s="20"/>
-      <c r="G564" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H564" s="39">
-        <v>3</v>
-      </c>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20" t="s">
-        <v>436</v>
+      <c r="K564" s="51">
+        <v>45237</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="40"/>
+      <c r="A565" s="40">
+        <v>45261</v>
+      </c>
       <c r="B565" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C565" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D565" s="39"/>
-      <c r="E565" s="9" t="s">
-        <v>440</v>
-      </c>
+      <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H565" s="39"/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H565" s="39">
+        <v>2</v>
+      </c>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="51">
-        <v>45237</v>
+      <c r="K565" s="20" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B566" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C566" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A566" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="B566" s="20"/>
+      <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H566" s="39">
-        <v>2</v>
-      </c>
+      <c r="G566" s="13"/>
+      <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20" t="s">
-        <v>437</v>
-      </c>
+      <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="B567" s="20"/>
+      <c r="A567" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B567" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13"/>
-      <c r="H567" s="39"/>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="39">
+        <v>1</v>
+      </c>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="51">
+        <v>45293</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B568" s="20" t="s">
-        <v>62</v>
-      </c>
+        <v>45323</v>
+      </c>
+      <c r="B568" s="20"/>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
@@ -16989,18 +16988,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H568" s="39">
-        <v>1</v>
-      </c>
+      <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="51">
-        <v>45293</v>
-      </c>
+      <c r="K568" s="20"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -17018,7 +17013,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -17036,7 +17031,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -17054,7 +17049,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17072,7 +17067,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17090,7 +17085,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17108,7 +17103,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17126,7 +17121,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17144,7 +17139,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17162,7 +17157,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17180,7 +17175,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17198,7 +17193,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17216,7 +17211,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17234,7 +17229,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17252,7 +17247,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17270,7 +17265,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17287,9 +17282,7 @@
       <c r="K584" s="20"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40">
-        <v>45809</v>
-      </c>
+      <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -17449,36 +17442,20 @@
       <c r="K594" s="20"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="40"/>
-      <c r="B595" s="20"/>
-      <c r="C595" s="13"/>
-      <c r="D595" s="39"/>
-      <c r="E595" s="9"/>
-      <c r="F595" s="20"/>
-      <c r="G595" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H595" s="39"/>
-      <c r="I595" s="9"/>
-      <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="41"/>
-      <c r="B596" s="15"/>
-      <c r="C596" s="42"/>
-      <c r="D596" s="43"/>
-      <c r="E596" s="50"/>
-      <c r="F596" s="15"/>
-      <c r="G596" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H596" s="43"/>
-      <c r="I596" s="50"/>
-      <c r="J596" s="12"/>
-      <c r="K596" s="15"/>
+      <c r="A595" s="41"/>
+      <c r="B595" s="15"/>
+      <c r="C595" s="42"/>
+      <c r="D595" s="43"/>
+      <c r="E595" s="50"/>
+      <c r="F595" s="15"/>
+      <c r="G595" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="43"/>
+      <c r="I595" s="50"/>
+      <c r="J595" s="12"/>
+      <c r="K595" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
@@ -2254,7 +2254,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2297,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2361,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2421,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2487,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2550,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2648,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2707,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,7 +2772,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,7 +2815,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2890,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,7 +3076,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3142,7 +3142,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,7 +3200,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3266,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3322,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,7 +3440,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3506,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3562,7 +3562,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3660,7 +3660,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3723,7 +3723,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4170,9 +4170,9 @@
   <dimension ref="A2:K595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A519"/>
+      <pane ySplit="3510" topLeftCell="A552" activePane="bottomLeft"/>
       <selection activeCell="R10" sqref="R10:R11"/>
-      <selection pane="bottomLeft" activeCell="B537" sqref="B537"/>
+      <selection pane="bottomLeft" activeCell="H537" sqref="H537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06943CC7-36C7-477C-8956-08F9EF8B7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="438">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1293,18 +1294,12 @@
     <t>UT(0-6-44)</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
     <t>11/7,8/2022</t>
   </si>
   <si>
     <t>UT(0-5-24)</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
     <t>9/20,23,27/2022</t>
   </si>
   <si>
@@ -1317,9 +1312,6 @@
     <t>UT(0-2-5)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(1-3-45)</t>
   </si>
   <si>
@@ -1354,12 +1346,15 @@
   </si>
   <si>
     <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2254,7 +2249,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2292,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2356,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2416,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2482,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2545,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2643,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2702,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,7 +2767,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,7 +2810,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2885,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,7 +3071,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3142,7 +3137,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,7 +3195,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3261,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3317,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3392,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,7 +3435,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3501,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3562,7 +3557,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3660,7 +3655,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3723,7 +3718,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3767,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3789,25 +3784,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3819,13 +3814,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3834,14 +3829,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4145,7 +4140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4155,7 +4150,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4163,34 +4158,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A552" activePane="bottomLeft"/>
-      <selection activeCell="R10" sqref="R10:R11"/>
-      <selection pane="bottomLeft" activeCell="H537" sqref="H537"/>
+      <pane ySplit="3516" topLeftCell="A520" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="B524" sqref="B524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4211,7 +4206,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4229,7 +4224,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4251,7 +4246,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4259,7 +4254,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4272,7 +4267,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -4289,7 +4284,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4333,7 +4328,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-8.8270000000001119</v>
+        <v>5.1729999999998881</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4348,7 +4343,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4370,7 +4365,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34612</v>
       </c>
@@ -4390,7 +4385,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34639</v>
       </c>
@@ -4410,7 +4405,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4431,7 +4426,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4449,7 +4444,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A13,1)</f>
         <v>34700</v>
@@ -4470,7 +4465,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4491,7 +4486,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4512,7 +4507,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4533,7 +4528,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4554,7 +4549,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4575,7 +4570,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4596,7 +4591,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4623,7 +4618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4644,7 +4639,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4665,7 +4660,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <f>EDATE(A24,1)</f>
         <v>35004</v>
@@ -4686,7 +4681,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4711,7 +4706,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>48</v>
       </c>
@@ -4729,7 +4724,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A26,1)</f>
         <v>35065</v>
@@ -4750,7 +4745,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4771,7 +4766,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A40" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4792,7 +4787,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4813,7 +4808,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4834,7 +4829,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4855,7 +4850,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4876,7 +4871,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4903,7 +4898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A35,1)</f>
         <v>35309</v>
@@ -4930,7 +4925,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>58</v>
@@ -4952,7 +4947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>35339</v>
@@ -4973,7 +4968,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4994,7 +4989,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -5015,7 +5010,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>49</v>
       </c>
@@ -5033,7 +5028,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35431</v>
@@ -5054,7 +5049,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -5075,7 +5070,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -5096,7 +5091,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -5117,7 +5112,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -5138,7 +5133,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -5165,7 +5160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>62</v>
@@ -5187,7 +5182,7 @@
         <v>35607</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35612</v>
@@ -5208,7 +5203,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -5229,7 +5224,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -5254,7 +5249,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>62</v>
@@ -5276,7 +5271,7 @@
         <v>35703</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
@@ -5303,7 +5298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A53,1)</f>
         <v>35735</v>
@@ -5324,7 +5319,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -5349,7 +5344,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>50</v>
       </c>
@@ -5367,7 +5362,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>35796</v>
@@ -5388,7 +5383,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35827</v>
@@ -5415,7 +5410,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A69" si="3">EDATE(A58,1)</f>
         <v>35855</v>
@@ -5436,7 +5431,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5457,7 +5452,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5484,7 +5479,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5511,7 +5506,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5532,7 +5527,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -5559,7 +5554,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>73</v>
@@ -5579,7 +5574,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36039</v>
@@ -5604,7 +5599,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -5629,7 +5624,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -5654,7 +5649,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
@@ -5681,7 +5676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>76</v>
@@ -5701,7 +5696,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5721,7 +5716,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>51</v>
       </c>
@@ -5739,7 +5734,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A69,1)</f>
         <v>36161</v>
@@ -5766,7 +5761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>62</v>
@@ -5788,7 +5783,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5808,7 +5803,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>36192</v>
@@ -5829,7 +5824,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A90" si="4">EDATE(A76,1)</f>
         <v>36220</v>
@@ -5856,7 +5851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -5883,7 +5878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>85</v>
@@ -5903,7 +5898,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36281</v>
@@ -5928,7 +5923,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A80,1)</f>
         <v>36312</v>
@@ -5955,7 +5950,7 @@
         <v>36313</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>87</v>
@@ -5975,7 +5970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5995,7 +5990,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>90</v>
@@ -6017,7 +6012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A81,1)</f>
         <v>36342</v>
@@ -6038,7 +6033,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -6059,7 +6054,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -6086,7 +6081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>94</v>
@@ -6106,7 +6101,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36434</v>
@@ -6127,7 +6122,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -6148,7 +6143,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36495</v>
@@ -6173,7 +6168,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>52</v>
       </c>
@@ -6191,7 +6186,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36526</v>
@@ -6212,7 +6207,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6233,7 +6228,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A104" si="5">EDATE(A94,1)</f>
         <v>36586</v>
@@ -6254,7 +6249,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -6275,7 +6270,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -6296,7 +6291,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -6317,7 +6312,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -6344,7 +6339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -6371,7 +6366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -6392,7 +6387,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -6413,7 +6408,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6434,7 +6429,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6459,7 +6454,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>53</v>
       </c>
@@ -6477,7 +6472,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36892</v>
@@ -6498,7 +6493,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>36923</v>
@@ -6519,7 +6514,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A117" si="6">EDATE(A107,1)</f>
         <v>36951</v>
@@ -6546,7 +6541,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6567,7 +6562,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -6594,7 +6589,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -6619,7 +6614,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6640,7 +6635,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6661,7 +6656,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6682,7 +6677,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6703,7 +6698,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6724,7 +6719,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37226</v>
@@ -6749,7 +6744,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>100</v>
       </c>
@@ -6767,7 +6762,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6788,7 +6783,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A200" si="7">EDATE(A119,1)</f>
         <v>37288</v>
@@ -6809,7 +6804,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37316</v>
@@ -6830,7 +6825,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6851,7 +6846,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6872,7 +6867,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6893,7 +6888,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6920,7 +6915,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6941,7 +6936,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6968,7 +6963,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6995,7 +6990,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -7016,7 +7011,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -7041,7 +7036,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>102</v>
       </c>
@@ -7059,7 +7054,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37622</v>
@@ -7080,7 +7075,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>37653</v>
@@ -7101,7 +7096,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>37681</v>
@@ -7128,7 +7123,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="7"/>
         <v>37712</v>
@@ -7155,7 +7150,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -7176,7 +7171,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -7197,7 +7192,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -7218,7 +7213,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -7239,7 +7234,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>37865</v>
@@ -7266,7 +7261,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>106</v>
@@ -7288,7 +7283,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37895</v>
@@ -7309,7 +7304,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -7330,7 +7325,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="7"/>
         <v>37956</v>
@@ -7351,7 +7346,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>108</v>
       </c>
@@ -7369,7 +7364,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37987</v>
@@ -7392,7 +7387,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>38018</v>
@@ -7413,7 +7408,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>38047</v>
@@ -7436,7 +7431,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -7463,7 +7458,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -7490,7 +7485,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -7511,7 +7506,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -7538,7 +7533,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -7559,7 +7554,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -7586,7 +7581,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>62</v>
@@ -7608,7 +7603,7 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38261</v>
@@ -7635,7 +7630,7 @@
         <v>38265</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>92</v>
@@ -7657,7 +7652,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -7679,7 +7674,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38292</v>
@@ -7700,7 +7695,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A159,1)</f>
         <v>38322</v>
@@ -7725,7 +7720,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="48" t="s">
         <v>112</v>
       </c>
@@ -7743,7 +7738,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38353</v>
@@ -7770,7 +7765,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="7"/>
         <v>38384</v>
@@ -7791,7 +7786,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="7"/>
         <v>38412</v>
@@ -7812,7 +7807,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -7839,7 +7834,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>87</v>
@@ -7859,7 +7854,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>68</v>
@@ -7881,7 +7876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38473</v>
@@ -7908,7 +7903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -7935,7 +7930,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -7962,7 +7957,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -7989,7 +7984,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -8014,7 +8009,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -8041,7 +8036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>126</v>
@@ -8063,7 +8058,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38657</v>
@@ -8084,7 +8079,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A175,1)</f>
         <v>38687</v>
@@ -8105,7 +8100,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>128</v>
       </c>
@@ -8123,7 +8118,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38718</v>
@@ -8150,7 +8145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>70</v>
@@ -8172,7 +8167,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -8194,7 +8189,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38749</v>
@@ -8215,7 +8210,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38777</v>
@@ -8242,7 +8237,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -8269,7 +8264,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -8296,7 +8291,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>87</v>
@@ -8316,7 +8311,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38869</v>
@@ -8337,7 +8332,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -8364,7 +8359,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -8385,7 +8380,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -8412,7 +8407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -8439,7 +8434,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>68</v>
@@ -8461,7 +8456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>403</v>
@@ -8483,7 +8478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39022</v>
@@ -8510,7 +8505,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -8535,7 +8530,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>92</v>
@@ -8557,7 +8552,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>58</v>
@@ -8579,7 +8574,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="48" t="s">
         <v>145</v>
       </c>
@@ -8597,7 +8592,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A194,1)</f>
         <v>39083</v>
@@ -8618,7 +8613,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="7"/>
         <v>39114</v>
@@ -8639,7 +8634,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="7"/>
         <v>39142</v>
@@ -8666,7 +8661,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>39173</v>
@@ -8693,7 +8688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>62</v>
@@ -8715,7 +8710,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>148</v>
@@ -8737,7 +8732,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>87</v>
@@ -8757,7 +8752,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>104</v>
@@ -8779,7 +8774,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>62</v>
@@ -8801,7 +8796,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A201,1)</f>
         <v>39203</v>
@@ -8822,7 +8817,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" ref="A208:A352" si="8">EDATE(A207,1)</f>
         <v>39234</v>
@@ -8843,7 +8838,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -8870,7 +8865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -8895,7 +8890,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>62</v>
@@ -8917,7 +8912,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39326</v>
@@ -8938,7 +8933,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -8959,7 +8954,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -8986,7 +8981,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>62</v>
@@ -9008,7 +9003,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>155</v>
@@ -9028,7 +9023,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A214,1)</f>
         <v>39417</v>
@@ -9055,7 +9050,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -9077,7 +9072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="48" t="s">
         <v>158</v>
       </c>
@@ -9095,7 +9090,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="51"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>39448</v>
@@ -9122,7 +9117,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>62</v>
@@ -9144,7 +9139,7 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
@@ -9169,7 +9164,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="8"/>
         <v>39508</v>
@@ -9190,7 +9185,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="8"/>
         <v>39539</v>
@@ -9217,7 +9212,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>87</v>
@@ -9237,7 +9232,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39569</v>
@@ -9258,7 +9253,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -9279,7 +9274,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="8"/>
         <v>39630</v>
@@ -9306,7 +9301,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>92</v>
@@ -9328,7 +9323,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39661</v>
@@ -9349,7 +9344,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="8"/>
         <v>39692</v>
@@ -9376,7 +9371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="8"/>
         <v>39722</v>
@@ -9403,7 +9398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>92</v>
@@ -9425,7 +9420,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39753</v>
@@ -9452,7 +9447,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>54</v>
@@ -9474,7 +9469,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39783</v>
@@ -9499,7 +9494,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>168</v>
@@ -9519,7 +9514,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>126</v>
@@ -9539,7 +9534,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>169</v>
       </c>
@@ -9557,7 +9552,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39814</v>
@@ -9584,7 +9579,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>62</v>
@@ -9606,7 +9601,7 @@
         <v>39839</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>172</v>
@@ -9624,7 +9619,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>39845</v>
@@ -9649,7 +9644,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>87</v>
@@ -9669,7 +9664,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39873</v>
@@ -9696,7 +9691,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>62</v>
@@ -9718,7 +9713,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -9740,7 +9735,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>62</v>
@@ -9762,7 +9757,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>62</v>
@@ -9784,7 +9779,7 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>175</v>
@@ -9804,7 +9799,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A245,1)</f>
         <v>39904</v>
@@ -9829,7 +9824,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
@@ -9856,7 +9851,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>62</v>
@@ -9876,7 +9871,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -9896,7 +9891,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>180</v>
@@ -9916,7 +9911,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39965</v>
@@ -9943,7 +9938,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>181</v>
@@ -9963,7 +9958,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A256,1)</f>
         <v>39995</v>
@@ -9988,7 +9983,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -10015,7 +10010,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>62</v>
@@ -10037,7 +10032,7 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>62</v>
@@ -10059,7 +10054,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>62</v>
@@ -10081,7 +10076,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>185</v>
@@ -10101,7 +10096,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="51"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A259,1)</f>
         <v>40057</v>
@@ -10128,7 +10123,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>62</v>
@@ -10150,7 +10145,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>187</v>
@@ -10170,7 +10165,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>40087</v>
@@ -10197,7 +10192,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>62</v>
@@ -10219,7 +10214,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>68</v>
@@ -10241,7 +10236,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>92</v>
@@ -10263,7 +10258,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>188</v>
@@ -10283,7 +10278,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A267,1)</f>
         <v>40118</v>
@@ -10310,7 +10305,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>191</v>
@@ -10330,7 +10325,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40148</v>
@@ -10357,7 +10352,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>68</v>
@@ -10376,7 +10371,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>87</v>
@@ -10393,7 +10388,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>106</v>
@@ -10412,7 +10407,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="48" t="s">
         <v>193</v>
       </c>
@@ -10427,7 +10422,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A274,1)</f>
         <v>40179</v>
@@ -10452,7 +10447,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>104</v>
@@ -10471,7 +10466,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>92</v>
@@ -10490,7 +10485,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>68</v>
@@ -10509,7 +10504,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>92</v>
@@ -10528,7 +10523,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>87</v>
@@ -10545,7 +10540,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>199</v>
@@ -10562,7 +10557,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A279,1)</f>
         <v>40210</v>
@@ -10587,7 +10582,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>62</v>
@@ -10606,7 +10601,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>205</v>
@@ -10623,7 +10618,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
@@ -10650,7 +10645,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>62</v>
@@ -10669,7 +10664,7 @@
         <v>40254</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>104</v>
@@ -10691,7 +10686,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>207</v>
@@ -10708,7 +10703,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A289,1)</f>
         <v>40269</v>
@@ -10733,7 +10728,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>87</v>
@@ -10750,7 +10745,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>68</v>
@@ -10767,7 +10762,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>208</v>
@@ -10784,7 +10779,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A293,1)</f>
         <v>40299</v>
@@ -10811,7 +10806,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>211</v>
@@ -10831,7 +10826,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
@@ -10858,7 +10853,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>62</v>
@@ -10880,7 +10875,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>62</v>
@@ -10902,7 +10897,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>213</v>
@@ -10922,7 +10917,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="51"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A299,1)</f>
         <v>40360</v>
@@ -10949,7 +10944,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>92</v>
@@ -10971,7 +10966,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>216</v>
@@ -10991,7 +10986,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>40391</v>
@@ -11018,7 +11013,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>62</v>
@@ -11037,7 +11032,7 @@
         <v>40414</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>218</v>
@@ -11054,7 +11049,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
@@ -11083,7 +11078,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>220</v>
@@ -11102,7 +11097,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>222</v>
@@ -11119,7 +11114,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A309,1)</f>
         <v>40452</v>
@@ -11148,7 +11143,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>220</v>
@@ -11167,7 +11162,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>226</v>
@@ -11184,7 +11179,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11213,7 +11208,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>220</v>
@@ -11232,7 +11227,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -11249,7 +11244,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
@@ -11274,7 +11269,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="48" t="s">
         <v>231</v>
       </c>
@@ -11292,7 +11287,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40544</v>
@@ -11317,7 +11312,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>234</v>
@@ -11337,7 +11332,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40575</v>
@@ -11362,7 +11357,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>236</v>
@@ -11382,7 +11377,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40603</v>
@@ -11407,7 +11402,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -11432,7 +11427,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -11457,7 +11452,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>40695</v>
@@ -11484,7 +11479,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>240</v>
@@ -11504,7 +11499,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40725</v>
@@ -11529,7 +11524,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -11554,7 +11549,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -11579,7 +11574,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -11604,7 +11599,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="8"/>
         <v>40848</v>
@@ -11631,7 +11626,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>247</v>
@@ -11651,7 +11646,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40878</v>
@@ -11676,7 +11671,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="48" t="s">
         <v>249</v>
       </c>
@@ -11694,7 +11689,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40909</v>
@@ -11721,7 +11716,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>250</v>
@@ -11738,7 +11733,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>251</v>
@@ -11755,7 +11750,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40940</v>
@@ -11780,7 +11775,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f t="shared" si="8"/>
         <v>40969</v>
@@ -11805,7 +11800,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" si="8"/>
         <v>41000</v>
@@ -11830,7 +11825,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -11857,7 +11852,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11876,7 +11871,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>254</v>
@@ -11893,7 +11888,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -11918,7 +11913,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -11945,7 +11940,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>141</v>
@@ -11962,7 +11957,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>92</v>
@@ -11981,7 +11976,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -11998,7 +11993,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A347,1)</f>
         <v>41122</v>
@@ -12023,7 +12018,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -12048,7 +12043,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>266</v>
@@ -12068,7 +12063,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41183</v>
@@ -12093,7 +12088,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A356" si="9">EDATE(A354,1)</f>
         <v>41214</v>
@@ -12114,7 +12109,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="9"/>
         <v>41244</v>
@@ -12139,7 +12134,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="48" t="s">
         <v>269</v>
       </c>
@@ -12157,7 +12152,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>41275</v>
@@ -12182,7 +12177,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f t="shared" ref="A359:A431" si="10">EDATE(A358,1)</f>
         <v>41306</v>
@@ -12207,7 +12202,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>68</v>
@@ -12229,7 +12224,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>92</v>
@@ -12251,7 +12246,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>274</v>
@@ -12271,7 +12266,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41334</v>
@@ -12296,7 +12291,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -12323,7 +12318,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>278</v>
@@ -12343,7 +12338,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41395</v>
@@ -12366,7 +12361,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>279</v>
@@ -12386,7 +12381,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41426</v>
@@ -12413,7 +12408,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>281</v>
@@ -12433,7 +12428,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41456</v>
@@ -12458,7 +12453,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -12483,7 +12478,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -12508,7 +12503,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="10"/>
         <v>41548</v>
@@ -12533,7 +12528,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="10"/>
         <v>41579</v>
@@ -12558,7 +12553,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -12583,7 +12578,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="48" t="s">
         <v>282</v>
       </c>
@@ -12601,7 +12596,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41640</v>
@@ -12626,7 +12621,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="10"/>
         <v>41671</v>
@@ -12651,7 +12646,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="10"/>
         <v>41699</v>
@@ -12676,7 +12671,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -12701,7 +12696,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -12726,7 +12721,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -12751,7 +12746,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -12776,7 +12771,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -12801,7 +12796,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -12826,7 +12821,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="10"/>
         <v>41913</v>
@@ -12851,7 +12846,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="10"/>
         <v>41944</v>
@@ -12876,7 +12871,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -12901,7 +12896,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>304</v>
@@ -12923,7 +12918,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="48" t="s">
         <v>294</v>
       </c>
@@ -12941,7 +12936,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42005</v>
@@ -12966,7 +12961,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>62</v>
@@ -12988,7 +12983,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>42036</v>
@@ -13013,7 +13008,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>68</v>
@@ -13035,7 +13030,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42064</v>
@@ -13060,7 +13055,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f t="shared" si="10"/>
         <v>42095</v>
@@ -13085,7 +13080,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>68</v>
@@ -13107,7 +13102,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42125</v>
@@ -13132,7 +13127,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>75</v>
@@ -13154,7 +13149,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42156</v>
@@ -13179,7 +13174,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>104</v>
@@ -13201,7 +13196,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42186</v>
@@ -13226,7 +13221,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="10"/>
         <v>42217</v>
@@ -13251,7 +13246,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>45</v>
@@ -13273,7 +13268,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42248</v>
@@ -13298,7 +13293,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>320</v>
@@ -13320,7 +13315,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>42278</v>
@@ -13345,7 +13340,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>62</v>
@@ -13367,7 +13362,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42309</v>
@@ -13392,7 +13387,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>324</v>
@@ -13414,7 +13409,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>42339</v>
@@ -13439,7 +13434,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="48" t="s">
         <v>302</v>
       </c>
@@ -13457,7 +13452,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>42370</v>
@@ -13482,7 +13477,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>75</v>
@@ -13504,7 +13499,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42401</v>
@@ -13529,7 +13524,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>92</v>
@@ -13551,7 +13546,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>62</v>
@@ -13573,7 +13568,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>42430</v>
@@ -13598,7 +13593,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A418,1)</f>
         <v>42461</v>
@@ -13623,7 +13618,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="10"/>
         <v>42491</v>
@@ -13648,7 +13643,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="10"/>
         <v>42522</v>
@@ -13673,7 +13668,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="10"/>
         <v>42552</v>
@@ -13698,7 +13693,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="10"/>
         <v>42583</v>
@@ -13723,7 +13718,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>337</v>
@@ -13743,7 +13738,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42614</v>
@@ -13768,7 +13763,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="10"/>
         <v>42644</v>
@@ -13795,7 +13790,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>62</v>
@@ -13817,7 +13812,7 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>68</v>
@@ -13839,7 +13834,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>341</v>
@@ -13859,7 +13854,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>42675</v>
@@ -13884,7 +13879,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="10"/>
         <v>42705</v>
@@ -13909,7 +13904,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="48" t="s">
         <v>303</v>
       </c>
@@ -13927,7 +13922,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f>EDATE(A431,1)</f>
         <v>42736</v>
@@ -13948,7 +13943,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A433,1)</f>
         <v>42767</v>
@@ -13973,7 +13968,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" ref="A435:A452" si="11">EDATE(A434,1)</f>
         <v>42795</v>
@@ -13998,7 +13993,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="11"/>
         <v>42826</v>
@@ -14025,7 +14020,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>87</v>
@@ -14042,7 +14037,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>92</v>
@@ -14061,7 +14056,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>141</v>
@@ -14078,7 +14073,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>350</v>
@@ -14095,7 +14090,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>42856</v>
@@ -14120,7 +14115,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="11"/>
         <v>42887</v>
@@ -14147,7 +14142,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>62</v>
@@ -14166,7 +14161,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>353</v>
@@ -14183,7 +14178,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f>EDATE(A442,1)</f>
         <v>42917</v>
@@ -14208,7 +14203,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="11"/>
         <v>42948</v>
@@ -14233,7 +14228,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="11"/>
         <v>42979</v>
@@ -14260,7 +14255,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>62</v>
@@ -14282,7 +14277,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>357</v>
@@ -14302,7 +14297,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="51"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -14327,7 +14322,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f>EDATE(A450,1)</f>
         <v>43040</v>
@@ -14348,7 +14343,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="11"/>
         <v>43070</v>
@@ -14369,7 +14364,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="48" t="s">
         <v>359</v>
       </c>
@@ -14387,7 +14382,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>43101</v>
@@ -14414,7 +14409,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>62</v>
@@ -14434,7 +14429,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>63</v>
@@ -14454,7 +14449,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43132</v>
@@ -14481,7 +14476,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A457,1)</f>
         <v>43160</v>
@@ -14502,7 +14497,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A460" si="12">EDATE(A458,1)</f>
         <v>43191</v>
@@ -14523,7 +14518,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="12"/>
         <v>43221</v>
@@ -14550,7 +14545,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>62</v>
@@ -14572,7 +14567,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>363</v>
@@ -14592,7 +14587,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43252</v>
@@ -14617,7 +14612,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f>EDATE(A463,1)</f>
         <v>43282</v>
@@ -14642,7 +14637,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A464,1)</f>
         <v>43313</v>
@@ -14667,7 +14662,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f t="shared" ref="A466:A470" si="13">EDATE(A465,1)</f>
         <v>43344</v>
@@ -14692,7 +14687,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="13"/>
         <v>43374</v>
@@ -14717,7 +14712,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="52" t="s">
         <v>386</v>
@@ -14737,7 +14732,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>43405</v>
@@ -14762,7 +14757,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="13"/>
         <v>43435</v>
@@ -14787,7 +14782,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="48" t="s">
         <v>371</v>
       </c>
@@ -14805,7 +14800,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>43466</v>
@@ -14826,7 +14821,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A472,1)</f>
         <v>43497</v>
@@ -14851,7 +14846,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>87</v>
@@ -14871,7 +14866,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>141</v>
@@ -14891,7 +14886,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A473,1)</f>
         <v>43525</v>
@@ -14916,7 +14911,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A484" si="14">EDATE(A476,1)</f>
         <v>43556</v>
@@ -14943,7 +14938,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>376</v>
@@ -14966,7 +14961,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43586</v>
@@ -14991,7 +14986,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f t="shared" si="14"/>
         <v>43617</v>
@@ -15016,7 +15011,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f t="shared" si="14"/>
         <v>43647</v>
@@ -15041,7 +15036,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="14"/>
         <v>43678</v>
@@ -15066,7 +15061,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="14"/>
         <v>43709</v>
@@ -15091,7 +15086,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="14"/>
         <v>43739</v>
@@ -15116,7 +15111,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>383</v>
@@ -15136,7 +15131,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f>EDATE(A484,1)</f>
         <v>43770</v>
@@ -15161,7 +15156,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A486,1)</f>
         <v>43800</v>
@@ -15186,7 +15181,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>388</v>
@@ -15206,7 +15201,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>389</v>
@@ -15226,7 +15221,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="48" t="s">
         <v>391</v>
       </c>
@@ -15244,7 +15239,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A487,1)</f>
         <v>43831</v>
@@ -15269,7 +15264,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>63</v>
@@ -15289,7 +15284,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>395</v>
@@ -15309,7 +15304,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="52"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>92</v>
@@ -15331,7 +15326,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f>EDATE(A491,1)</f>
         <v>43862</v>
@@ -15356,7 +15351,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A504" si="15">EDATE(A495,1)</f>
         <v>43891</v>
@@ -15377,7 +15372,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f t="shared" si="15"/>
         <v>43922</v>
@@ -15398,7 +15393,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="15"/>
         <v>43952</v>
@@ -15419,7 +15414,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f t="shared" si="15"/>
         <v>43983</v>
@@ -15440,7 +15435,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="15"/>
         <v>44013</v>
@@ -15461,7 +15456,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="15"/>
         <v>44044</v>
@@ -15482,7 +15477,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" si="15"/>
         <v>44075</v>
@@ -15503,7 +15498,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>44105</v>
@@ -15524,7 +15519,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" si="15"/>
         <v>44136</v>
@@ -15545,7 +15540,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>44166</v>
@@ -15570,7 +15565,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="48" t="s">
         <v>398</v>
       </c>
@@ -15588,7 +15583,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>44197</v>
@@ -15609,7 +15604,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f>EDATE(A507,1)</f>
         <v>44228</v>
@@ -15630,7 +15625,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f t="shared" ref="A509:A518" si="16">EDATE(A508,1)</f>
         <v>44256</v>
@@ -15651,7 +15646,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" si="16"/>
         <v>44287</v>
@@ -15672,7 +15667,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="16"/>
         <v>44317</v>
@@ -15693,7 +15688,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f t="shared" si="16"/>
         <v>44348</v>
@@ -15714,7 +15709,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f t="shared" si="16"/>
         <v>44378</v>
@@ -15735,7 +15730,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f t="shared" si="16"/>
         <v>44409</v>
@@ -15756,7 +15751,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f t="shared" si="16"/>
         <v>44440</v>
@@ -15777,7 +15772,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f t="shared" si="16"/>
         <v>44470</v>
@@ -15798,7 +15793,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f t="shared" si="16"/>
         <v>44501</v>
@@ -15819,7 +15814,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f t="shared" si="16"/>
         <v>44531</v>
@@ -15844,7 +15839,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>47</v>
@@ -15864,7 +15859,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
         <v>400</v>
       </c>
@@ -15882,7 +15877,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>44562</v>
@@ -15903,7 +15898,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A521,1)</f>
         <v>44593</v>
@@ -15924,22 +15919,22 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <f t="shared" ref="A523" si="17">EDATE(A522,1)</f>
         <v>44621</v>
       </c>
       <c r="B523" s="20" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C523" s="13">
         <v>1.25</v>
       </c>
-      <c r="D523" s="39">
+      <c r="D523" s="39"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="39">
         <v>1</v>
       </c>
-      <c r="E523" s="9"/>
-      <c r="F523" s="20"/>
       <c r="G523" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -15951,10 +15946,10 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C524" s="13"/>
       <c r="D524" s="39">
@@ -15971,7 +15966,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="51"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f>EDATE(A523,1)</f>
         <v>44652</v>
@@ -15998,7 +15993,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>62</v>
@@ -16017,10 +16012,10 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39">
@@ -16037,22 +16032,22 @@
       <c r="J527" s="11"/>
       <c r="K527" s="51"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <f>EDATE(A525,1)</f>
         <v>44682</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="C528" s="13">
         <v>1.25</v>
       </c>
-      <c r="D528" s="39">
+      <c r="D528" s="39"/>
+      <c r="E528" s="9"/>
+      <c r="F528" s="39">
         <v>2</v>
       </c>
-      <c r="E528" s="9"/>
-      <c r="F528" s="20"/>
       <c r="G528" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -16061,10 +16056,10 @@
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>213</v>
@@ -16084,22 +16079,22 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <f>EDATE(A528,1)</f>
         <v>44713</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>422</v>
+        <v>117</v>
       </c>
       <c r="C530" s="13">
         <v>1.25</v>
       </c>
-      <c r="D530" s="39">
+      <c r="D530" s="39"/>
+      <c r="E530" s="9"/>
+      <c r="F530" s="39">
         <v>3</v>
       </c>
-      <c r="E530" s="9"/>
-      <c r="F530" s="20"/>
       <c r="G530" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -16108,13 +16103,13 @@
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
       <c r="K530" s="20" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C531" s="13"/>
       <c r="D531" s="39">
@@ -16131,7 +16126,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f>EDATE(A530,1)</f>
         <v>44743</v>
@@ -16158,17 +16153,17 @@
         <v>401</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C533" s="13"/>
-      <c r="D533" s="39">
+      <c r="D533" s="39"/>
+      <c r="E533" s="9"/>
+      <c r="F533" s="39">
         <v>1</v>
       </c>
-      <c r="E533" s="9"/>
-      <c r="F533" s="20"/>
       <c r="G533" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -16180,10 +16175,10 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C534" s="13"/>
       <c r="D534" s="39">
@@ -16200,21 +16195,21 @@
       <c r="J534" s="11"/>
       <c r="K534" s="51"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44774</v>
       </c>
       <c r="B535" s="20" t="s">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="C535" s="13">
         <v>1.25</v>
       </c>
-      <c r="D535" s="39">
+      <c r="D535" s="39"/>
+      <c r="E535" s="9"/>
+      <c r="F535" s="39">
         <v>2</v>
       </c>
-      <c r="E535" s="9"/>
-      <c r="F535" s="20"/>
       <c r="G535" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -16223,13 +16218,13 @@
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
       <c r="K535" s="20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C536" s="13"/>
       <c r="D536" s="39">
@@ -16246,21 +16241,21 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44805</v>
       </c>
       <c r="B537" s="20" t="s">
-        <v>422</v>
+        <v>117</v>
       </c>
       <c r="C537" s="13">
         <v>1.25</v>
       </c>
-      <c r="D537" s="39">
+      <c r="D537" s="39"/>
+      <c r="E537" s="9"/>
+      <c r="F537" s="39">
         <v>3</v>
       </c>
-      <c r="E537" s="9"/>
-      <c r="F537" s="20"/>
       <c r="G537" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -16269,13 +16264,13 @@
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
       <c r="K537" s="20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C538" s="13"/>
       <c r="D538" s="39">
@@ -16292,7 +16287,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44835</v>
       </c>
@@ -16318,7 +16313,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>389</v>
@@ -16340,21 +16335,21 @@
         <v>413</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44866</v>
       </c>
       <c r="B541" s="20" t="s">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="C541" s="13">
         <v>1.25</v>
       </c>
-      <c r="D541" s="39">
+      <c r="D541" s="39"/>
+      <c r="E541" s="9"/>
+      <c r="F541" s="39">
         <v>2</v>
       </c>
-      <c r="E541" s="9"/>
-      <c r="F541" s="20"/>
       <c r="G541" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -16363,13 +16358,13 @@
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
       <c r="K541" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C542" s="13"/>
       <c r="D542" s="39">
@@ -16386,7 +16381,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44896</v>
       </c>
@@ -16412,7 +16407,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>418</v>
@@ -16432,7 +16427,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="48" t="s">
         <v>404</v>
       </c>
@@ -16450,7 +16445,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44927</v>
       </c>
@@ -16476,7 +16471,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>68</v>
@@ -16498,7 +16493,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44958</v>
       </c>
@@ -16524,7 +16519,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>87</v>
@@ -16544,7 +16539,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44986</v>
       </c>
@@ -16570,7 +16565,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>68</v>
@@ -16592,7 +16587,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>45017</v>
       </c>
@@ -16618,7 +16613,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>45047</v>
       </c>
@@ -16644,7 +16639,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45078</v>
       </c>
@@ -16670,7 +16665,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>62</v>
@@ -16692,7 +16687,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>87</v>
@@ -16712,7 +16707,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>62</v>
@@ -16734,7 +16729,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>45108</v>
       </c>
@@ -16760,7 +16755,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45139</v>
       </c>
@@ -16786,7 +16781,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45170</v>
       </c>
@@ -16812,7 +16807,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>68</v>
@@ -16821,7 +16816,7 @@
       <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G561" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -16833,10 +16828,10 @@
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
       <c r="K561" s="51" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>45200</v>
       </c>
@@ -16862,7 +16857,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45231</v>
       </c>
@@ -16885,10 +16880,10 @@
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>87</v>
@@ -16896,7 +16891,7 @@
       <c r="C564" s="13"/>
       <c r="D564" s="39"/>
       <c r="E564" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F564" s="20"/>
       <c r="G564" s="13" t="str">
@@ -16910,7 +16905,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45261</v>
       </c>
@@ -16933,12 +16928,12 @@
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="20" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="48" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16951,7 +16946,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45292</v>
       </c>
@@ -16975,7 +16970,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45323</v>
       </c>
@@ -16993,7 +16988,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>45352</v>
       </c>
@@ -17011,7 +17006,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>45383</v>
       </c>
@@ -17029,7 +17024,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45413</v>
       </c>
@@ -17047,7 +17042,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45444</v>
       </c>
@@ -17065,7 +17060,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>45474</v>
       </c>
@@ -17083,7 +17078,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45505</v>
       </c>
@@ -17101,7 +17096,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>45536</v>
       </c>
@@ -17119,7 +17114,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>45566</v>
       </c>
@@ -17137,7 +17132,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>45597</v>
       </c>
@@ -17155,7 +17150,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>45627</v>
       </c>
@@ -17173,7 +17168,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>45658</v>
       </c>
@@ -17191,7 +17186,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>45689</v>
       </c>
@@ -17209,7 +17204,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>45717</v>
       </c>
@@ -17227,7 +17222,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>45748</v>
       </c>
@@ -17245,7 +17240,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>45778</v>
       </c>
@@ -17263,7 +17258,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>45809</v>
       </c>
@@ -17281,7 +17276,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17297,7 +17292,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17313,7 +17308,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17329,7 +17324,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17345,7 +17340,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17361,7 +17356,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17377,7 +17372,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17393,7 +17388,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17409,7 +17404,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17425,7 +17420,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17441,7 +17436,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="41"/>
       <c r="B595" s="15"/>
       <c r="C595" s="42"/>
@@ -17472,10 +17467,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17501,7 +17496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17509,21 +17504,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -17536,7 +17531,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17565,7 +17560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17593,17 +17588,17 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17624,7 +17619,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17651,7 +17646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17677,7 +17672,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17703,7 +17698,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17729,7 +17724,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17755,7 +17750,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17781,7 +17776,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17807,7 +17802,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17833,7 +17828,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17853,7 +17848,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17873,7 +17868,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17893,7 +17888,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17914,7 +17909,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17935,7 +17930,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17956,7 +17951,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17977,7 +17972,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17998,7 +17993,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18019,7 +18014,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18040,7 +18035,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18061,7 +18056,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18082,7 +18077,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18103,7 +18098,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18124,7 +18119,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18145,7 +18140,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18166,7 +18161,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18187,7 +18182,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18208,7 +18203,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18229,7 +18224,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18250,7 +18245,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18271,7 +18266,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18292,7 +18287,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18313,7 +18308,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18322,7 +18317,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18331,7 +18326,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18340,7 +18335,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18349,7 +18344,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18358,7 +18353,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18367,7 +18362,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18376,7 +18371,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18385,7 +18380,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18394,7 +18389,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18403,7 +18398,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18412,7 +18407,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18421,7 +18416,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18430,7 +18425,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18439,7 +18434,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18448,7 +18443,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18457,7 +18452,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18466,7 +18461,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18475,7 +18470,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18484,7 +18479,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18493,7 +18488,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18502,7 +18497,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18511,7 +18506,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18520,7 +18515,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18529,7 +18524,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18538,7 +18533,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18547,7 +18542,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18556,7 +18551,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18565,7 +18560,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18574,7 +18569,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/MAYORS OFFICE/ZALDIVIA, MIRIAM F..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06943CC7-36C7-477C-8956-08F9EF8B7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D979D8F-1641-4EC0-ADDF-F635809235BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="439">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1349,6 +1349,9 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>1/10,11,12/2024</t>
   </si>
 </sst>
 </file>
@@ -3784,7 +3787,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K596" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4162,12 +4165,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K595"/>
+  <dimension ref="A2:K596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A520" activePane="bottomLeft"/>
+      <pane ySplit="3516" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B524" sqref="B524"/>
+      <selection pane="bottomLeft" activeCell="B569" sqref="B569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4338,7 +4341,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.708999999999889</v>
+        <v>50.708999999999889</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14956,7 +14959,7 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.708999999999889</v>
+        <v>50.708999999999889</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
@@ -16971,10 +16974,10 @@
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A568" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B568" s="20"/>
+      <c r="A568" s="40"/>
+      <c r="B568" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
@@ -16983,14 +16986,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H568" s="39"/>
+      <c r="H568" s="39">
+        <v>3</v>
+      </c>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="51" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -17008,7 +17015,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -17026,7 +17033,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -17044,7 +17051,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17062,7 +17069,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17080,7 +17087,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17098,7 +17105,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17116,7 +17123,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17134,7 +17141,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17152,7 +17159,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17170,7 +17177,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17188,7 +17195,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17206,7 +17213,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17224,7 +17231,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17242,7 +17249,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17260,7 +17267,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17277,7 +17284,9 @@
       <c r="K584" s="20"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A585" s="40"/>
+      <c r="A585" s="40">
+        <v>45809</v>
+      </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -17437,20 +17446,36 @@
       <c r="K594" s="20"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A595" s="41"/>
-      <c r="B595" s="15"/>
-      <c r="C595" s="42"/>
-      <c r="D595" s="43"/>
-      <c r="E595" s="50"/>
-      <c r="F595" s="15"/>
-      <c r="G595" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H595" s="43"/>
-      <c r="I595" s="50"/>
-      <c r="J595" s="12"/>
-      <c r="K595" s="15"/>
+      <c r="A595" s="40"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="39"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="39"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="20"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A596" s="41"/>
+      <c r="B596" s="15"/>
+      <c r="C596" s="42"/>
+      <c r="D596" s="43"/>
+      <c r="E596" s="50"/>
+      <c r="F596" s="15"/>
+      <c r="G596" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="43"/>
+      <c r="I596" s="50"/>
+      <c r="J596" s="12"/>
+      <c r="K596" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
